--- a/preds.xlsx
+++ b/preds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./mp/samples/184963.png</t>
+          <t>./mp/samples/605791.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>184963</t>
+          <t>605791</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>184963</t>
+          <t>605791</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -484,17 +484,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./mp/samples/269469.png</t>
+          <t>./mp/samples/452664.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>269469</t>
+          <t>452664</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>269469</t>
+          <t>452664</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./mp/samples/933479.png</t>
+          <t>./mp/samples/797106.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>933479</t>
+          <t>797106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>933479</t>
+          <t>797106</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -530,17 +530,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./mp/samples/828000.png</t>
+          <t>./mp/samples/828914.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>828000</t>
+          <t>828914</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>828000</t>
+          <t>828914</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -553,17 +553,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./mp/samples/186763.png</t>
+          <t>./mp/samples/809471.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>186763</t>
+          <t>809471</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>186763</t>
+          <t>809471</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -576,17 +576,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./mp/samples/938051.png</t>
+          <t>./mp/samples/802839.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>938051</t>
+          <t>802839</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>938051</t>
+          <t>802839</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -599,17 +599,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./mp/samples/177547.png</t>
+          <t>./mp/samples/479449.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>177547</t>
+          <t>479449</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>177547</t>
+          <t>479449</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -622,17 +622,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./mp/samples/858364.png</t>
+          <t>./mp/samples/275857.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>858364</t>
+          <t>275857</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>858364</t>
+          <t>275857</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -645,17 +645,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./mp/samples/239266.png</t>
+          <t>./mp/samples/442409.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>239266</t>
+          <t>442409</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>239266</t>
+          <t>442409</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -668,17 +668,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./mp/samples/770158.png</t>
+          <t>./mp/samples/186763.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>770158</t>
+          <t>186763</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>770158</t>
+          <t>186763</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -691,17 +691,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./mp/samples/818738.png</t>
+          <t>./mp/samples/119619.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>818738</t>
+          <t>119619</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>818738</t>
+          <t>119619</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -714,21 +714,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./mp/samples/492373.png</t>
+          <t>./mp/samples/823642.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>492373</t>
+          <t>823642</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>492373</t>
+          <t>828642</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -737,17 +737,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./mp/samples/640760.png</t>
+          <t>./mp/samples/859052.png</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>640760</t>
+          <t>859052</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>640760</t>
+          <t>859052</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -760,20 +760,1055 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./mp/samples/611172.png</t>
+          <t>./mp/samples/359362.png</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>611172</t>
+          <t>359362</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>611172</t>
+          <t>359362</t>
         </is>
       </c>
       <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>./mp/samples/353084.png</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>353084</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>353084</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>./mp/samples/834943.png</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>834943</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>834943</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>./mp/samples/427237.png</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>427237</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>427287</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>./mp/samples/661243.png</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>661243</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>661243</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>./mp/samples/397310.png</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>397310</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>397310</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>./mp/samples/440642.png</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>440642</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>440642</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>./mp/samples/703724.png</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>703724</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>703724</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>./mp/samples/816477.png</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>816477</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>816477</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>./mp/samples/231690.png</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>231690</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>231690</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>./mp/samples/429303.png</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>429303</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>429303</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>./mp/samples/689320.png</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>689320</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>689320</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>./mp/samples/217682.png</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>217682</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>217682</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>./mp/samples/592996.png</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>592996</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>592996</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>./mp/samples/254011.png</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>254011</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>254011</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>./mp/samples/587837.png</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>587837</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>587837</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>./mp/samples/636645.png</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>636645</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>636645</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>./mp/samples/130144.png</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>130144</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>130144</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>./mp/samples/879027.png</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>879027</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>879027</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>./mp/samples/483493.png</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>483493</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>483493</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>./mp/samples/184963.png</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>184963</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>184963</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>./mp/samples/136948.png</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>136948</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>136948</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>./mp/samples/231404.png</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>231404</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>281404</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>./mp/samples/363392.png</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>363392</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>363392</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>./mp/samples/524487.png</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>524487</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>524487</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>./mp/samples/739153.png</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>739153</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>739153</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>./mp/samples/752331.png</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>752331</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>752331</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./mp/samples/240755.png</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>240755</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>240755</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./mp/samples/441818.png</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>441818</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>441818</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./mp/samples/697798.png</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>697798</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>697798</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./mp/samples/718368.png</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>718368</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>718368</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./mp/samples/391361.png</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>391361</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>391361</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./mp/samples/313924.png</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>313924</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>313924</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./mp/samples/578975.png</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>578975</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>578975</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./mp/samples/431577.png</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>431577</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>431577</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./mp/samples/620944.png</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>620944</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>620944</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./mp/samples/416123.png</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>416123</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>416123</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./mp/samples/537730.png</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>537730</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>537730</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./mp/samples/593550.png</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>593550</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>593550</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./mp/samples/790085.png</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>790085</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>790085</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./mp/samples/894850.png</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>894850</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>894850</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./mp/samples/668349.png</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>668349</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>668349</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./mp/samples/802228.png</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>802228</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>802228</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./mp/samples/594286.png</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>594286</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>594286</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./mp/samples/580124.png</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>580124</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>580124</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./mp/samples/616826.png</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>616826</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>616826</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
         <v>1</v>
       </c>
     </row>

--- a/preds.xlsx
+++ b/preds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./mp/samples/605791.png</t>
+          <t>./samples/806074.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>605791</t>
+          <t>806074</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>605791</t>
+          <t>806074</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -484,17 +484,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./mp/samples/452664.png</t>
+          <t>./samples/475256.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>452664</t>
+          <t>475256</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>452664</t>
+          <t>475256</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./mp/samples/797106.png</t>
+          <t>./samples/925575.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>797106</t>
+          <t>925575</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>797106</t>
+          <t>925575</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -530,17 +530,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./mp/samples/828914.png</t>
+          <t>./samples/254221.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>828914</t>
+          <t>254221</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>828914</t>
+          <t>254221</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -553,17 +553,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./mp/samples/809471.png</t>
+          <t>./samples/426745.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>809471</t>
+          <t>426745</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>809471</t>
+          <t>426745</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -576,17 +576,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./mp/samples/802839.png</t>
+          <t>./samples/453767.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>802839</t>
+          <t>453767</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>802839</t>
+          <t>453767</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -599,17 +599,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./mp/samples/479449.png</t>
+          <t>./samples/125656.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>479449</t>
+          <t>125656</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>479449</t>
+          <t>125656</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -622,17 +622,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./mp/samples/275857.png</t>
+          <t>./samples/853368.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>275857</t>
+          <t>853368</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>275857</t>
+          <t>853368</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -645,17 +645,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./mp/samples/442409.png</t>
+          <t>./samples/968790.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>442409</t>
+          <t>968790</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>442409</t>
+          <t>968790</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -668,17 +668,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./mp/samples/186763.png</t>
+          <t>./samples/514198.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>186763</t>
+          <t>514198</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>186763</t>
+          <t>514198</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -691,17 +691,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./mp/samples/119619.png</t>
+          <t>./samples/770158.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>119619</t>
+          <t>770158</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>119619</t>
+          <t>770158</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -714,21 +714,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./mp/samples/823642.png</t>
+          <t>./samples/308432.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>823642</t>
+          <t>308432</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>828642</t>
+          <t>308432</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -737,17 +737,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./mp/samples/859052.png</t>
+          <t>./samples/429303.png</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>859052</t>
+          <t>429303</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>859052</t>
+          <t>429303</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -760,17 +760,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./mp/samples/359362.png</t>
+          <t>./samples/528441.png</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>359362</t>
+          <t>528441</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>359362</t>
+          <t>528441</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./mp/samples/353084.png</t>
+          <t>./samples/954620.png</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>353084</t>
+          <t>954620</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>353084</t>
+          <t>954620</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -806,17 +806,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./mp/samples/834943.png</t>
+          <t>./samples/507553.png</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>834943</t>
+          <t>507553</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>834943</t>
+          <t>507553</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -829,21 +829,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./mp/samples/427237.png</t>
+          <t>./samples/427722.png</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>427237</t>
+          <t>427722</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>427287</t>
+          <t>427722</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -852,17 +852,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./mp/samples/661243.png</t>
+          <t>./samples/579640.png</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>661243</t>
+          <t>579640</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>661243</t>
+          <t>579640</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -875,17 +875,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./mp/samples/397310.png</t>
+          <t>./samples/600763.png</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>397310</t>
+          <t>600763</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>397310</t>
+          <t>600763</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -898,17 +898,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./mp/samples/440642.png</t>
+          <t>./samples/429212.png</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>440642</t>
+          <t>429212</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>440642</t>
+          <t>429212</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -921,17 +921,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./mp/samples/703724.png</t>
+          <t>./samples/431577.png</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>703724</t>
+          <t>431577</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>703724</t>
+          <t>431577</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -944,17 +944,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./mp/samples/816477.png</t>
+          <t>./samples/805056.png</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>816477</t>
+          <t>805056</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>816477</t>
+          <t>805056</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -967,17 +967,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./mp/samples/231690.png</t>
+          <t>./samples/739916.png</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>231690</t>
+          <t>739916</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>231690</t>
+          <t>739916</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -990,17 +990,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./mp/samples/429303.png</t>
+          <t>./samples/400771.png</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>429303</t>
+          <t>400771</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>429303</t>
+          <t>400771</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./mp/samples/689320.png</t>
+          <t>./samples/699178.png</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>689320</t>
+          <t>699178</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>689320</t>
+          <t>699178</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./mp/samples/217682.png</t>
+          <t>./samples/161929.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>217682</t>
+          <t>161929</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>217682</t>
+          <t>161929</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./mp/samples/592996.png</t>
+          <t>./samples/839440.png</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>592996</t>
+          <t>839440</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>592996</t>
+          <t>839440</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./mp/samples/254011.png</t>
+          <t>./samples/250002.png</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>254011</t>
+          <t>250002</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>254011</t>
+          <t>250002</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./mp/samples/587837.png</t>
+          <t>./samples/193847.png</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>587837</t>
+          <t>193847</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>587837</t>
+          <t>193847</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./mp/samples/636645.png</t>
+          <t>./samples/342230.png</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>636645</t>
+          <t>342230</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>636645</t>
+          <t>342230</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./mp/samples/130144.png</t>
+          <t>./samples/650952.png</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>130144</t>
+          <t>650952</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>130144</t>
+          <t>650952</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./mp/samples/879027.png</t>
+          <t>./samples/621517.png</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>879027</t>
+          <t>621517</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>879027</t>
+          <t>621517</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./mp/samples/483493.png</t>
+          <t>./samples/493229.png</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>483493</t>
+          <t>493229</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>483493</t>
+          <t>493229</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1220,17 +1220,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./mp/samples/184963.png</t>
+          <t>./samples/260287.png</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>184963</t>
+          <t>260287</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>184963</t>
+          <t>260287</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./mp/samples/136948.png</t>
+          <t>./samples/569469.png</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>136948</t>
+          <t>569469</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>136948</t>
+          <t>569469</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1266,21 +1266,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./mp/samples/231404.png</t>
+          <t>./samples/337183.png</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>231404</t>
+          <t>337183</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>281404</t>
+          <t>337183</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./mp/samples/363392.png</t>
+          <t>./samples/849431.png</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>363392</t>
+          <t>849431</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>363392</t>
+          <t>849431</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./mp/samples/524487.png</t>
+          <t>./samples/333800.png</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>524487</t>
+          <t>333800</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>524487</t>
+          <t>333800</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./mp/samples/739153.png</t>
+          <t>./samples/598612.png</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>739153</t>
+          <t>598612</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>739153</t>
+          <t>598612</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./mp/samples/752331.png</t>
+          <t>./samples/616442.png</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>752331</t>
+          <t>616442</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>752331</t>
+          <t>616442</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./mp/samples/240755.png</t>
+          <t>./samples/507561.png</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>240755</t>
+          <t>507561</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>240755</t>
+          <t>507561</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./mp/samples/441818.png</t>
+          <t>./samples/878954.png</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>441818</t>
+          <t>878954</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>441818</t>
+          <t>878954</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./mp/samples/697798.png</t>
+          <t>./samples/243146.png</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>697798</t>
+          <t>243146</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>697798</t>
+          <t>243146</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1450,17 +1450,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./mp/samples/718368.png</t>
+          <t>./samples/136940.png</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>718368</t>
+          <t>136940</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>718368</t>
+          <t>136940</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./mp/samples/391361.png</t>
+          <t>./samples/546103.png</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>391361</t>
+          <t>546103</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>391361</t>
+          <t>546103</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./mp/samples/313924.png</t>
+          <t>./samples/759862.png</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>313924</t>
+          <t>759862</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>313924</t>
+          <t>759862</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1519,17 +1519,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./mp/samples/578975.png</t>
+          <t>./samples/902564.png</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>578975</t>
+          <t>902564</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>578975</t>
+          <t>902564</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1542,17 +1542,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./mp/samples/431577.png</t>
+          <t>./samples/304999.png</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>431577</t>
+          <t>304999</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>431577</t>
+          <t>304999</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./mp/samples/620944.png</t>
+          <t>./samples/533785.png</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>620944</t>
+          <t>533785</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>620944</t>
+          <t>533785</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1588,17 +1588,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./mp/samples/416123.png</t>
+          <t>./samples/519311.png</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>416123</t>
+          <t>519311</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>416123</t>
+          <t>519311</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./mp/samples/537730.png</t>
+          <t>./samples/809681.png</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>537730</t>
+          <t>809681</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>537730</t>
+          <t>809681</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./mp/samples/593550.png</t>
+          <t>./samples/227507.png</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>593550</t>
+          <t>227507</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>593550</t>
+          <t>227507</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./mp/samples/790085.png</t>
+          <t>./samples/606387.png</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>790085</t>
+          <t>606387</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>790085</t>
+          <t>606387</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1680,17 +1680,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./mp/samples/894850.png</t>
+          <t>./samples/293035.png</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>894850</t>
+          <t>293035</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>894850</t>
+          <t>293035</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./mp/samples/668349.png</t>
+          <t>./samples/440143.png</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>668349</t>
+          <t>440143</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>668349</t>
+          <t>440143</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./mp/samples/802228.png</t>
+          <t>./samples/578817.png</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>802228</t>
+          <t>578817</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>802228</t>
+          <t>578817</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./mp/samples/594286.png</t>
+          <t>./samples/654145.png</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>594286</t>
+          <t>654145</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>594286</t>
+          <t>654145</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./mp/samples/580124.png</t>
+          <t>./samples/804314.png</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>580124</t>
+          <t>804314</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>580124</t>
+          <t>804314</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1795,20 +1795,1400 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./mp/samples/616826.png</t>
+          <t>./samples/276109.png</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>616826</t>
+          <t>276109</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>616826</t>
+          <t>276109</t>
         </is>
       </c>
       <c r="E60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./samples/204861.png</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>204861</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>204861</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./samples/650354.png</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>650354</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>650354</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./samples/842324.png</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>842324</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>842324</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./samples/318694.png</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>318694</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>318694</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./samples/249003.png</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>249003</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>249003</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./samples/650402.png</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>650402</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>650402</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./samples/198299.png</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>198299</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>198299</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./samples/243444.png</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>243444</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>243444</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./samples/939950.png</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>939950</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>939950</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./samples/314134.png</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>314134</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>314134</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./samples/575983.png</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>575983</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>575983</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./samples/837332.png</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>837332</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>837332</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./samples/823642.png</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>823642</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>828642</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./samples/875945.png</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>875945</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>875945</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./samples/281493.png</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>281493</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>281493</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./samples/177547.png</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>177547</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>177547</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./samples/697798.png</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>697798</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>697798</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./samples/253700.png</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>253700</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>253700</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./samples/431865.png</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>431865</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>431865</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./samples/923385.png</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>923385</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>923385</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./samples/851165.png</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>851165</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>851165</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./samples/965961.png</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>965961</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>965961</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./samples/132755.png</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>132755</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>132755</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./samples/992361.png</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>992361</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>992361</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./samples/834677.png</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>834677</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>834677</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./samples/909724.png</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>909724</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>909724</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./samples/355653.png</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>355653</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>355653</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./samples/796123.png</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>796123</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>796123</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./samples/732690.png</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>732690</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>732690</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./samples/400972.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>400972</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>400972</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./samples/360043.png</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>360043</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>360043</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./samples/600125.png</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>600125</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>600125</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./samples/835158.png</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>835158</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>835158</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./samples/111149.png</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>111149</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>111149</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./samples/881337.png</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>881337</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>881337</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./samples/377576.png</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>377576</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>377576</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./samples/957384.png</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>957384</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>957384</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./samples/217983.png</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>217983</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>217983</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./samples/369553.png</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>369553</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>369553</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./samples/729443.png</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>729443</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>729443</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./samples/846204.png</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>846204</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>846204</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>./samples/211437.png</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>211437</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>211437</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>./samples/955949.png</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>955949</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>955949</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>./samples/965903.png</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>965903</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>965903</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>./samples/201715.png</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>201715</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>201715</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>./samples/654578.png</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>654578</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>654578</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>./samples/300289.png</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>300289</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>300289</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>./samples/943099.png</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>943099</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>943099</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>./samples/452896.png</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>452896</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>452896</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>./samples/256979.png</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>256979</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>256979</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>./samples/322831.png</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>322831</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>322831</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>./samples/818246.png</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>818246</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>818246</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>./samples/356012.png</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>356012</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>356012</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>./samples/266994.png</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>266994</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>266994</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>./samples/415059.png</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>415059</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>415059</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>./samples/359189.png</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>359189</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>359189</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>./samples/120136.png</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>120136</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>120136</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>./samples/585822.png</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>585822</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>585822</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>./samples/586133.png</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>586133</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>586133</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>./samples/883110.png</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>883110</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>883110</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/preds.xlsx
+++ b/preds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./samples/806074.png</t>
+          <t>../samples/733702.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>806074</t>
+          <t>733702</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>806074</t>
+          <t>733702</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -484,17 +484,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./samples/475256.png</t>
+          <t>../samples/836036.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>475256</t>
+          <t>836036</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>475256</t>
+          <t>836036</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./samples/925575.png</t>
+          <t>../samples/721567.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>925575</t>
+          <t>721567</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>925575</t>
+          <t>721567</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -530,17 +530,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./samples/254221.png</t>
+          <t>../samples/582439.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>254221</t>
+          <t>582439</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>254221</t>
+          <t>582439</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -553,17 +553,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./samples/426745.png</t>
+          <t>../samples/638320.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>426745</t>
+          <t>638320</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>426745</t>
+          <t>638320</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -576,17 +576,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./samples/453767.png</t>
+          <t>../samples/279090.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>453767</t>
+          <t>279090</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>453767</t>
+          <t>279090</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -599,17 +599,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./samples/125656.png</t>
+          <t>../samples/668061.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>125656</t>
+          <t>668061</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>125656</t>
+          <t>668061</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -622,17 +622,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./samples/853368.png</t>
+          <t>../samples/542704.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>853368</t>
+          <t>542704</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>853368</t>
+          <t>542704</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -645,17 +645,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./samples/968790.png</t>
+          <t>../samples/440642.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>968790</t>
+          <t>440642</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>968790</t>
+          <t>440642</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -668,17 +668,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./samples/514198.png</t>
+          <t>../samples/400416.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>514198</t>
+          <t>400416</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>514198</t>
+          <t>400416</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -691,17 +691,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./samples/770158.png</t>
+          <t>../samples/669323.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>770158</t>
+          <t>669323</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>770158</t>
+          <t>669323</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -714,17 +714,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./samples/308432.png</t>
+          <t>../samples/786030.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>308432</t>
+          <t>786030</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>308432</t>
+          <t>786030</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -737,17 +737,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./samples/429303.png</t>
+          <t>../samples/292846.png</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>429303</t>
+          <t>292846</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>429303</t>
+          <t>292846</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -760,17 +760,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./samples/528441.png</t>
+          <t>../samples/954926.png</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>528441</t>
+          <t>954926</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>528441</t>
+          <t>954926</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./samples/954620.png</t>
+          <t>../samples/797903.png</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>954620</t>
+          <t>797903</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>954620</t>
+          <t>797903</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -806,17 +806,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./samples/507553.png</t>
+          <t>../samples/689234.png</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>507553</t>
+          <t>689234</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>507553</t>
+          <t>689234</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -829,17 +829,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./samples/427722.png</t>
+          <t>../samples/505206.png</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>427722</t>
+          <t>505206</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>427722</t>
+          <t>505206</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -852,17 +852,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./samples/579640.png</t>
+          <t>../samples/661954.png</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>579640</t>
+          <t>661954</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>579640</t>
+          <t>661954</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -875,17 +875,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./samples/600763.png</t>
+          <t>../samples/545860.png</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>600763</t>
+          <t>545860</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>600763</t>
+          <t>545860</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -898,17 +898,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./samples/429212.png</t>
+          <t>../samples/589587.png</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>429212</t>
+          <t>589587</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>429212</t>
+          <t>589587</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -921,17 +921,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./samples/431577.png</t>
+          <t>../samples/913614.png</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>431577</t>
+          <t>913614</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>431577</t>
+          <t>913614</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -944,17 +944,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./samples/805056.png</t>
+          <t>../samples/790026.png</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>805056</t>
+          <t>790026</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>805056</t>
+          <t>790026</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -967,17 +967,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./samples/739916.png</t>
+          <t>../samples/828000.png</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>739916</t>
+          <t>828000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>739916</t>
+          <t>828000</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -990,17 +990,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./samples/400771.png</t>
+          <t>../samples/479020.png</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>400771</t>
+          <t>479020</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>400771</t>
+          <t>479020</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./samples/699178.png</t>
+          <t>../samples/669077.png</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>699178</t>
+          <t>669077</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>699178</t>
+          <t>669077</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./samples/161929.png</t>
+          <t>../samples/600663.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>161929</t>
+          <t>600663</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>161929</t>
+          <t>600663</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./samples/839440.png</t>
+          <t>../samples/425668.png</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>839440</t>
+          <t>425668</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>839440</t>
+          <t>425668</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./samples/250002.png</t>
+          <t>../samples/983656.png</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>250002</t>
+          <t>983656</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>250002</t>
+          <t>983656</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./samples/193847.png</t>
+          <t>../samples/895784.png</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>193847</t>
+          <t>895784</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>193847</t>
+          <t>895784</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./samples/342230.png</t>
+          <t>../samples/694131.png</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>342230</t>
+          <t>694131</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>342230</t>
+          <t>694131</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./samples/650952.png</t>
+          <t>../samples/398511.png</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>650952</t>
+          <t>398511</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>650952</t>
+          <t>398511</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./samples/621517.png</t>
+          <t>../samples/600973.png</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>621517</t>
+          <t>600973</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>621517</t>
+          <t>600973</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./samples/493229.png</t>
+          <t>../samples/803127.png</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>493229</t>
+          <t>803127</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>493229</t>
+          <t>803127</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1220,17 +1220,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./samples/260287.png</t>
+          <t>../samples/381770.png</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>260287</t>
+          <t>381770</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>260287</t>
+          <t>381770</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./samples/569469.png</t>
+          <t>../samples/340600.png</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>569469</t>
+          <t>340600</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>569469</t>
+          <t>340600</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./samples/337183.png</t>
+          <t>../samples/404142.png</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>337183</t>
+          <t>404142</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>337183</t>
+          <t>404142</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./samples/849431.png</t>
+          <t>../samples/264220.png</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>849431</t>
+          <t>264220</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>849431</t>
+          <t>264220</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./samples/333800.png</t>
+          <t>../samples/788600.png</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>333800</t>
+          <t>788600</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>333800</t>
+          <t>788600</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./samples/598612.png</t>
+          <t>../samples/701706.png</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>598612</t>
+          <t>701706</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>598612</t>
+          <t>701706</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./samples/616442.png</t>
+          <t>../samples/659396.png</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>616442</t>
+          <t>659396</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>616442</t>
+          <t>659396</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./samples/507561.png</t>
+          <t>../samples/404252.png</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>507561</t>
+          <t>404252</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>507561</t>
+          <t>404252</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1404,17 +1404,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./samples/878954.png</t>
+          <t>../samples/533785.png</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>878954</t>
+          <t>533785</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>878954</t>
+          <t>533785</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./samples/243146.png</t>
+          <t>../samples/711931.png</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>243146</t>
+          <t>711931</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>243146</t>
+          <t>711931</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1450,17 +1450,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./samples/136940.png</t>
+          <t>../samples/785697.png</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>136940</t>
+          <t>785697</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>136940</t>
+          <t>785697</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./samples/546103.png</t>
+          <t>../samples/979704.png</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>546103</t>
+          <t>979704</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>546103</t>
+          <t>979704</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./samples/759862.png</t>
+          <t>../samples/530840.png</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>759862</t>
+          <t>530840</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>759862</t>
+          <t>530840</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1519,17 +1519,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./samples/902564.png</t>
+          <t>../samples/859585.png</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>902564</t>
+          <t>859585</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>902564</t>
+          <t>859585</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1542,17 +1542,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./samples/304999.png</t>
+          <t>../samples/817775.png</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>304999</t>
+          <t>817775</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>304999</t>
+          <t>817775</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./samples/533785.png</t>
+          <t>../samples/890383.png</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>533785</t>
+          <t>890383</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>533785</t>
+          <t>890383</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1588,17 +1588,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./samples/519311.png</t>
+          <t>../samples/735835.png</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>519311</t>
+          <t>735835</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>519311</t>
+          <t>735835</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./samples/809681.png</t>
+          <t>../samples/316953.png</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>809681</t>
+          <t>316953</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>809681</t>
+          <t>316953</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./samples/227507.png</t>
+          <t>../samples/678454.png</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>227507</t>
+          <t>678454</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>227507</t>
+          <t>678454</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./samples/606387.png</t>
+          <t>../samples/821856.png</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>606387</t>
+          <t>821856</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>606387</t>
+          <t>821856</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1680,17 +1680,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./samples/293035.png</t>
+          <t>../samples/731838.png</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>293035</t>
+          <t>731838</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>293035</t>
+          <t>731838</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./samples/440143.png</t>
+          <t>../samples/593785.png</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>440143</t>
+          <t>593785</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>440143</t>
+          <t>593785</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./samples/578817.png</t>
+          <t>../samples/417802.png</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>578817</t>
+          <t>417802</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>578817</t>
+          <t>417802</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./samples/654145.png</t>
+          <t>../samples/438107.png</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>654145</t>
+          <t>438107</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>654145</t>
+          <t>438107</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./samples/804314.png</t>
+          <t>../samples/363058.png</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>804314</t>
+          <t>363058</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>804314</t>
+          <t>363058</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1795,17 +1795,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./samples/276109.png</t>
+          <t>../samples/745325.png</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>276109</t>
+          <t>745325</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>276109</t>
+          <t>745325</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1818,17 +1818,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./samples/204861.png</t>
+          <t>../samples/740660.png</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>204861</t>
+          <t>740660</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>204861</t>
+          <t>740660</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1841,21 +1841,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./samples/650354.png</t>
+          <t>../samples/823642.png</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>650354</t>
+          <t>823642</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>650354</t>
+          <t>828642</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./samples/842324.png</t>
+          <t>../samples/303164.png</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>842324</t>
+          <t>303164</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>842324</t>
+          <t>303164</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./samples/318694.png</t>
+          <t>../samples/915690.png</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>318694</t>
+          <t>915690</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>318694</t>
+          <t>915690</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1910,17 +1910,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./samples/249003.png</t>
+          <t>../samples/293035.png</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>249003</t>
+          <t>293035</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>249003</t>
+          <t>293035</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./samples/650402.png</t>
+          <t>../samples/670371.png</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>650402</t>
+          <t>670371</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>650402</t>
+          <t>670371</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./samples/198299.png</t>
+          <t>../samples/802839.png</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>198299</t>
+          <t>802839</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>198299</t>
+          <t>802839</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>./samples/243444.png</t>
+          <t>../samples/843690.png</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>243444</t>
+          <t>843690</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>243444</t>
+          <t>843690</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2002,17 +2002,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>./samples/939950.png</t>
+          <t>../samples/437599.png</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>939950</t>
+          <t>437599</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>939950</t>
+          <t>437599</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>./samples/314134.png</t>
+          <t>../samples/861205.png</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>314134</t>
+          <t>861205</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>314134</t>
+          <t>861205</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2048,17 +2048,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>./samples/575983.png</t>
+          <t>../samples/358197.png</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>358197</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>358197</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>./samples/837332.png</t>
+          <t>../samples/913704.png</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>837332</t>
+          <t>913704</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>837332</t>
+          <t>913704</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2094,21 +2094,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>./samples/823642.png</t>
+          <t>../samples/753811.png</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>823642</t>
+          <t>753811</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>828642</t>
+          <t>753811</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>./samples/875945.png</t>
+          <t>../samples/937178.png</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>875945</t>
+          <t>937178</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>875945</t>
+          <t>937178</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2140,17 +2140,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>./samples/281493.png</t>
+          <t>../samples/998757.png</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>281493</t>
+          <t>998757</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>281493</t>
+          <t>998757</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>./samples/177547.png</t>
+          <t>../samples/882360.png</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>177547</t>
+          <t>882360</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>177547</t>
+          <t>882360</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>./samples/697798.png</t>
+          <t>../samples/837025.png</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>697798</t>
+          <t>837025</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>697798</t>
+          <t>837025</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>./samples/253700.png</t>
+          <t>../samples/751195.png</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>253700</t>
+          <t>751195</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>253700</t>
+          <t>751195</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2232,17 +2232,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>./samples/431865.png</t>
+          <t>../samples/559953.png</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>431865</t>
+          <t>559953</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>431865</t>
+          <t>559953</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2255,17 +2255,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>./samples/923385.png</t>
+          <t>../samples/580484.png</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>923385</t>
+          <t>580484</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>923385</t>
+          <t>580484</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2278,21 +2278,21 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>./samples/851165.png</t>
+          <t>../samples/295537.png</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>851165</t>
+          <t>295537</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>851165</t>
+          <t>295337</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2301,17 +2301,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>./samples/965961.png</t>
+          <t>../samples/860628.png</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>965961</t>
+          <t>860628</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>965961</t>
+          <t>860628</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2324,17 +2324,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>./samples/132755.png</t>
+          <t>../samples/458070.png</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>132755</t>
+          <t>458070</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>132755</t>
+          <t>458070</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>./samples/992361.png</t>
+          <t>../samples/439111.png</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>992361</t>
+          <t>439111</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>992361</t>
+          <t>439111</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>./samples/834677.png</t>
+          <t>../samples/363392.png</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>834677</t>
+          <t>363392</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>834677</t>
+          <t>363392</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>./samples/909724.png</t>
+          <t>../samples/647841.png</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>909724</t>
+          <t>647841</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>909724</t>
+          <t>647841</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2416,17 +2416,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>./samples/355653.png</t>
+          <t>../samples/786603.png</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>355653</t>
+          <t>786603</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>355653</t>
+          <t>786603</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2439,17 +2439,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>./samples/796123.png</t>
+          <t>../samples/668349.png</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>796123</t>
+          <t>668349</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>796123</t>
+          <t>668349</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2462,17 +2462,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>./samples/732690.png</t>
+          <t>../samples/912051.png</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>732690</t>
+          <t>912051</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>732690</t>
+          <t>912051</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2485,17 +2485,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>./samples/400972.jpg</t>
+          <t>../samples/370907.png</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>400972</t>
+          <t>370907</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>400972</t>
+          <t>370907</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2508,17 +2508,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>./samples/360043.png</t>
+          <t>../samples/534931.png</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>360043</t>
+          <t>534931</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>360043</t>
+          <t>534931</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>./samples/600125.png</t>
+          <t>../samples/358957.png</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>600125</t>
+          <t>358957</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>600125</t>
+          <t>358957</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2554,17 +2554,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>./samples/835158.png</t>
+          <t>../samples/409686.png</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>835158</t>
+          <t>409686</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>835158</t>
+          <t>409686</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2577,17 +2577,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>./samples/111149.png</t>
+          <t>../samples/537868.png</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>111149</t>
+          <t>537868</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>111149</t>
+          <t>537868</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2600,17 +2600,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>./samples/881337.png</t>
+          <t>../samples/707654.png</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>881337</t>
+          <t>707654</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>881337</t>
+          <t>707654</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>./samples/377576.png</t>
+          <t>../samples/382972.png</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>377576</t>
+          <t>382972</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>377576</t>
+          <t>382972</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>./samples/957384.png</t>
+          <t>../samples/571277.png</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>957384</t>
+          <t>571277</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>957384</t>
+          <t>571277</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>./samples/217983.png</t>
+          <t>../samples/986271.png</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>217983</t>
+          <t>986271</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>217983</t>
+          <t>986271</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2692,17 +2692,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>./samples/369553.png</t>
+          <t>../samples/903034.png</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>369553</t>
+          <t>903034</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>369553</t>
+          <t>903034</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2715,17 +2715,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>./samples/729443.png</t>
+          <t>../samples/954428.png</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>729443</t>
+          <t>954428</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>729443</t>
+          <t>954428</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>./samples/846204.png</t>
+          <t>../samples/400785.png</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>846204</t>
+          <t>400785</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>846204</t>
+          <t>400785</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>./samples/211437.png</t>
+          <t>../samples/630270.png</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>211437</t>
+          <t>630270</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>211437</t>
+          <t>630270</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2784,17 +2784,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>./samples/955949.png</t>
+          <t>../samples/432735.png</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>955949</t>
+          <t>432735</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>955949</t>
+          <t>432735</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2807,17 +2807,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>./samples/965903.png</t>
+          <t>../samples/366624.png</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>965903</t>
+          <t>366624</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>965903</t>
+          <t>366624</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2830,17 +2830,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>./samples/201715.png</t>
+          <t>../samples/785897.png</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>201715</t>
+          <t>785897</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>201715</t>
+          <t>785897</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2853,17 +2853,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>./samples/654578.png</t>
+          <t>../samples/617695.png</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>654578</t>
+          <t>617695</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>654578</t>
+          <t>617695</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2876,17 +2876,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>./samples/300289.png</t>
+          <t>../samples/367554.png</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>300289</t>
+          <t>367554</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>300289</t>
+          <t>367554</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2899,17 +2899,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>./samples/943099.png</t>
+          <t>../samples/268989.png</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>943099</t>
+          <t>268989</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>943099</t>
+          <t>268989</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2922,17 +2922,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>./samples/452896.png</t>
+          <t>../samples/359362.png</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>452896</t>
+          <t>359362</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>452896</t>
+          <t>359362</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2945,17 +2945,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>./samples/256979.png</t>
+          <t>../samples/593550.png</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>256979</t>
+          <t>593550</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>256979</t>
+          <t>593550</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2968,17 +2968,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>./samples/322831.png</t>
+          <t>../samples/924173.png</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>322831</t>
+          <t>924173</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>322831</t>
+          <t>924173</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>./samples/818246.png</t>
+          <t>../samples/739468.png</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>818246</t>
+          <t>739468</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>818246</t>
+          <t>739468</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3014,17 +3014,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>./samples/356012.png</t>
+          <t>../samples/728589.png</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>356012</t>
+          <t>728589</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>356012</t>
+          <t>728589</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>./samples/266994.png</t>
+          <t>../samples/401198.png</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>266994</t>
+          <t>401198</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>266994</t>
+          <t>401198</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3060,17 +3060,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>./samples/415059.png</t>
+          <t>../samples/626610.png</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>415059</t>
+          <t>626610</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>415059</t>
+          <t>626610</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3083,17 +3083,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>./samples/359189.png</t>
+          <t>../samples/782040.png</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>359189</t>
+          <t>782040</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>359189</t>
+          <t>782040</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3106,17 +3106,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>./samples/120136.png</t>
+          <t>../samples/534262.png</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>120136</t>
+          <t>534262</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>120136</t>
+          <t>534262</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3129,17 +3129,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>./samples/585822.png</t>
+          <t>../samples/995110.png</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>585822</t>
+          <t>995110</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>585822</t>
+          <t>995110</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3152,17 +3152,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>./samples/586133.png</t>
+          <t>../samples/373928.png</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>586133</t>
+          <t>373928</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>586133</t>
+          <t>373928</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -3175,20 +3175,2297 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>./samples/883110.png</t>
+          <t>../samples/746448.png</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>883110</t>
+          <t>746448</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>883110</t>
+          <t>746448</t>
         </is>
       </c>
       <c r="E120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>../samples/308066.png</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>308066</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>308066</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>../samples/400275.png</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>400275</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>400275</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>../samples/707907.png</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>707907</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>707907</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>../samples/356351.png</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>356351</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>356351</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>../samples/434543.png</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>434543</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>434543</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>../samples/806089.png</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>806089</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>806089</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>../samples/654145.png</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>654145</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>654145</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>../samples/336176.png</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>336176</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>336176</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>../samples/628933.png</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>628933</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>628933</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>../samples/655312.png</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>655312</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>655312</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>../samples/512858.png</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>512858</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>512858</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>../samples/925575.png</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>925575</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>925575</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>../samples/767075.png</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>767075</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>767075</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>../samples/740717.png</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>740717</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>740717</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>../samples/865550.png</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>865550</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>865550</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>../samples/308189.png</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>308189</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>308189</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>../samples/413757.png</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>413757</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>413757</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>../samples/269067.png</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>269067</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>269067</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>../samples/586133.png</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>586133</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>586133</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>../samples/487531.png</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>487531</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>487531</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>../samples/487316.png</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>487316</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>487316</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>../samples/922732.png</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>922732</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>922732</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>../samples/815133.png</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>815133</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>815133</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>../samples/767688.png</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>767688</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>767688</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>../samples/572246.png</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>572246</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>572246</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>../samples/836343.png</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>836343</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>836343</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>../samples/448315.png</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>448315</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>448315</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>../samples/855717.png</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>855717</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>855717</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>../samples/744913.png</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>744913</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>744913</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>../samples/454455.png</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>454455</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>454455</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>../samples/831368.png</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>831368</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>831368</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>../samples/578126.png</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>578126</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>578126</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>../samples/483861.png</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>483861</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>483861</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>../samples/797694.png</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>797694</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>797694</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>../samples/481871.png</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>481871</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>481871</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>../samples/342476.png</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>342476</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>342476</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>../samples/752755.png</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>752755</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>752755</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>../samples/695922.png</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>695922</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>695922</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>../samples/767391.png</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>767391</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>767391</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>../samples/456369.png</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>456369</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>456369</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>../samples/497573.png</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>497573</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>497573</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>../samples/385398.png</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>385398</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>385398</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>../samples/843106.png</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>843106</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>843106</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>../samples/792841.png</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>792841</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>792841</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>../samples/384857.png</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>384857</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>384857</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>../samples/758457.png</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>758457</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>758457</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>../samples/898472.png</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>898472</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>898472</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>../samples/480666.png</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>480666</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>480666</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>../samples/465330.png</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>465330</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>465330</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>../samples/585768.png</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>585768</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>585768</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>../samples/498788.png</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>498788</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>498788</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>../samples/271352.png</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>271352</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>271352</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>../samples/507774.png</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>507774</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>507774</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>../samples/712792.png</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>712792</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>712792</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>../samples/579279.png</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>579279</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>579279</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>../samples/529511.png</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>529511</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>529511</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>../samples/668260.png</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>668260</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>668260</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>../samples/464037.png</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>464037</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>464037</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>../samples/489512.png</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>489512</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>489512</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>../samples/862431.png</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>862431</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>862431</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>../samples/990158.png</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>990158</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>990158</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>../samples/602822.png</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>602822</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>602822</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>../samples/314134.png</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>314134</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>314134</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>../samples/797583.png</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>797583</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>797583</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>../samples/825856.png</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>825856</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>825856</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>../samples/442413.png</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>442413</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>442413</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>../samples/292402.png</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>292402</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>292402</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>../samples/897312.png</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>897312</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>897312</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>../samples/966496.png</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>966496</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>966496</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>../samples/368142.png</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>368142</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>368142</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>../samples/391255.png</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>391255</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>391255</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>../samples/623187.png</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>623187</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>623187</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>../samples/268477.png</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>268477</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>268477</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>../samples/827935.png</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>827935</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>827935</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>../samples/709006.png</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>709006</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>709006</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>../samples/817436.png</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>817436</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>817436</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>../samples/596640.png</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>596640</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>596640</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>../samples/834599.png</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>834599</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>834599</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>../samples/792882.png</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>792882</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>792882</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>../samples/779152.png</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>779152</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>779152</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>../samples/987400.png</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>987400</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>987400</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>../samples/898783.png</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>898783</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>898783</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>../samples/924466.png</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>924466</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>924466</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>../samples/944091.png</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>944091</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>944091</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>../samples/837332.png</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>837332</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>837332</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>../samples/284686.png</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>284686</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>284686</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>../samples/896054.png</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>896054</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>896054</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>../samples/577732.png</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>577732</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>577732</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>../samples/819655.png</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>819655</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>819655</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>../samples/958453.png</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>958453</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>958453</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>../samples/489697.png</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>489697</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>489697</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>../samples/840538.png</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>840538</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>840538</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>../samples/479376.png</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>479376</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>479376</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>../samples/364423.png</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>364423</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>364423</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>../samples/992361.png</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>992361</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>992361</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>../samples/296285.png</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>296285</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>296285</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>../samples/886254.png</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>886254</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>886254</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>../samples/595189.png</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>595189</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>595189</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>../samples/689012.png</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>689012</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>689012</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
         <v>1</v>
       </c>
     </row>
